--- a/testData/bluenile - Copy.xlsx
+++ b/testData/bluenile - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://talentkloud-my.sharepoint.com/personal/vaibhav_gangrade_codvo_ai/Documents/Documents/Codvo.ai/MyProject/ZS_Playwright_GenAI/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="6_{7FD022CF-C216-4189-B51E-8EC99E25A265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BF685B2-726F-4F87-91BF-BBE19CF98126}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="6_{7FD022CF-C216-4189-B51E-8EC99E25A265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6AE08F8-ECD9-4D2C-9216-ABCDA25411CF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>action</t>
   </si>
@@ -45,9 +45,6 @@
     <t>goto</t>
   </si>
   <si>
-    <t>https://www.bluenile.com/jewelry/necklaces/34-paperclip-necklace-in-14k-italian-yellow-gold-4-mm-item-193864</t>
-  </si>
-  <si>
     <t>scroll</t>
   </si>
   <si>
@@ -96,12 +93,6 @@
     <t>Enter Address Manually button</t>
   </si>
   <si>
-    <t>San Diego</t>
-  </si>
-  <si>
-    <t>city input field</t>
-  </si>
-  <si>
     <t>ADD TO CART button</t>
   </si>
   <si>
@@ -117,16 +108,25 @@
     <t>Phone Number input field</t>
   </si>
   <si>
-    <t>Street Address</t>
-  </si>
-  <si>
-    <t>Please select</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>selectvalue</t>
+    <t>input#address-finder</t>
+  </si>
+  <si>
+    <t>filldata</t>
+  </si>
+  <si>
+    <t>presskey</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>We Accept</t>
+  </si>
+  <si>
+    <t>https://www.bluenile.com/jewelry/necklaces/lab-grown-diamond-cushion-cut-solitaire-pendant-in-14k-white-gold-1-2-ct-tw-f-g-vs2-si1-item-202314</t>
+  </si>
+  <si>
+    <t>Book Now button on popup</t>
   </si>
 </sst>
 </file>
@@ -460,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="98" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1">
         <v>7000</v>
@@ -506,30 +506,30 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1">
         <v>1000</v>
       </c>
       <c r="E3" s="1">
-        <v>7000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1">
         <v>1000</v>
       </c>
       <c r="E4" s="1">
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -537,43 +537,43 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1">
         <v>1000</v>
       </c>
       <c r="E5" s="1">
-        <v>7000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D7" s="1">
         <v>1000</v>
       </c>
       <c r="E7" s="1">
-        <v>7000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1">
         <v>1000</v>
@@ -584,18 +584,24 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1">
         <v>1000</v>
@@ -606,52 +612,52 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E11" s="1">
-        <v>5000</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1">
         <v>1000</v>
       </c>
       <c r="E12" s="1">
-        <v>7000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="1">
         <v>5000</v>
@@ -659,237 +665,198 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E15" s="1">
-        <v>5000</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E16" s="1">
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E17" s="1">
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1">
         <v>1000</v>
       </c>
       <c r="E18" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D19" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E19" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" s="1">
         <v>1000</v>
       </c>
       <c r="E20" s="1">
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D21" s="1">
         <v>1000</v>
       </c>
       <c r="E21" s="1">
-        <v>5000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D22" s="1">
         <v>1000</v>
       </c>
       <c r="E22" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D23" s="1">
         <v>1000</v>
       </c>
       <c r="E23" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D24" s="1">
         <v>1000</v>
       </c>
       <c r="E24" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="1">
-        <v>92106</v>
+        <v>26</v>
       </c>
       <c r="D25" s="1">
         <v>1000</v>
       </c>
       <c r="E25" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="C26" s="1">
+        <v>6142273098</v>
       </c>
       <c r="D26" s="1">
         <v>1000</v>
       </c>
       <c r="E26" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D27" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E27" s="1">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="1">
-        <v>6142273098</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E28" s="1">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="1">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" xr:uid="{0C1E223C-07BA-4FC2-A2CB-10F3E67D2F55}"/>
+    <hyperlink ref="C13" r:id="rId1" xr:uid="{0C1E223C-07BA-4FC2-A2CB-10F3E67D2F55}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{979FC2DF-A930-4714-8BCF-A210590BEE43}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/testData/bluenile - Copy.xlsx
+++ b/testData/bluenile - Copy.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://talentkloud-my.sharepoint.com/personal/vaibhav_gangrade_codvo_ai/Documents/Documents/Codvo.ai/MyProject/ZS_Playwright_GenAI/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="6_{7FD022CF-C216-4189-B51E-8EC99E25A265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6AE08F8-ECD9-4D2C-9216-ABCDA25411CF}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="6_{7FD022CF-C216-4189-B51E-8EC99E25A265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6E3C8B1-9076-4E36-9C92-88DB117D3E6B}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>action</t>
   </si>
@@ -54,79 +65,97 @@
     <t>https://www.bluenile.com/shopping-cart</t>
   </si>
   <si>
+    <t>ADD TO CART button</t>
+  </si>
+  <si>
+    <t>https://www.bluenile.com/jewelry/necklaces/lab-grown-diamond-cushion-cut-solitaire-pendant-in-14k-white-gold-1-2-ct-tw-f-g-vs2-si1-item-202314</t>
+  </si>
+  <si>
+    <t>Ships by</t>
+  </si>
+  <si>
     <t>wairfortext</t>
   </si>
   <si>
     <t>Summary</t>
   </si>
   <si>
+    <t>We Accept</t>
+  </si>
+  <si>
+    <t>Checkout button</t>
+  </si>
+  <si>
     <t>Please provide an email address</t>
   </si>
   <si>
+    <t>Email Address input field</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
     <t>mellina@gmail.com</t>
   </si>
   <si>
+    <t>Continue button</t>
+  </si>
+  <si>
     <t>First Name</t>
   </si>
   <si>
+    <t>First Name input field</t>
+  </si>
+  <si>
     <t>Mellina</t>
   </si>
   <si>
+    <t>Last Name input field</t>
+  </si>
+  <si>
     <t>James</t>
   </si>
   <si>
-    <t>Checkout button</t>
-  </si>
-  <si>
-    <t>Continue button</t>
+    <t>Enter Address Manually button</t>
+  </si>
+  <si>
+    <t>filldata</t>
+  </si>
+  <si>
+    <t>input#address-finder</t>
   </si>
   <si>
     <t>3710 Pio Pico St</t>
   </si>
   <si>
-    <t>Email Address input field</t>
-  </si>
-  <si>
-    <t>Enter Address Manually button</t>
-  </si>
-  <si>
-    <t>ADD TO CART button</t>
-  </si>
-  <si>
-    <t>Last Name input field</t>
-  </si>
-  <si>
-    <t>First Name input field</t>
-  </si>
-  <si>
-    <t>Zip / Postal Code input field</t>
+    <t>presskey</t>
+  </si>
+  <si>
+    <t>Enter</t>
   </si>
   <si>
     <t>Phone Number input field</t>
   </si>
   <si>
-    <t>input#address-finder</t>
-  </si>
-  <si>
-    <t>filldata</t>
-  </si>
-  <si>
-    <t>presskey</t>
-  </si>
-  <si>
-    <t>Enter</t>
-  </si>
-  <si>
-    <t>We Accept</t>
-  </si>
-  <si>
-    <t>https://www.bluenile.com/jewelry/necklaces/lab-grown-diamond-cushion-cut-solitaire-pendant-in-14k-white-gold-1-2-ct-tw-f-g-vs2-si1-item-202314</t>
-  </si>
-  <si>
-    <t>Book Now button on popup</t>
+    <t>Contact information</t>
+  </si>
+  <si>
+    <t>assert</t>
+  </si>
+  <si>
+    <t>Use same address for billing</t>
+  </si>
+  <si>
+    <t>clickloc</t>
+  </si>
+  <si>
+    <t>button[data-qa="continue_button-shipping_and_billing_step-checkout_page"]</t>
+  </si>
+  <si>
+    <t>#email</t>
+  </si>
+  <si>
+    <t>#phone</t>
   </si>
 </sst>
 </file>
@@ -460,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="98" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A24" sqref="A1:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,10 +527,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1000</v>
       </c>
       <c r="E2" s="1">
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -509,13 +541,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1">
         <v>1000</v>
       </c>
       <c r="E3" s="1">
-        <v>2000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -523,7 +555,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
         <v>1000</v>
@@ -543,23 +575,23 @@
         <v>1000</v>
       </c>
       <c r="E5" s="1">
-        <v>5000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>33</v>
+      <c r="B7" t="s">
+        <v>14</v>
       </c>
       <c r="D7" s="1">
         <v>1000</v>
@@ -573,7 +605,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1">
         <v>1000</v>
@@ -584,16 +616,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E9" s="1">
-        <v>5000</v>
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -607,15 +633,24 @@
         <v>1000</v>
       </c>
       <c r="E10" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -629,7 +664,7 @@
         <v>1000</v>
       </c>
       <c r="E12" s="1">
-        <v>2000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -637,16 +672,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -654,21 +680,30 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1">
         <v>1000</v>
       </c>
       <c r="E14" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2000</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -687,13 +722,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D17" s="1">
         <v>1000</v>
@@ -707,7 +742,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D18" s="1">
         <v>1000</v>
@@ -718,27 +753,27 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D19" s="1">
         <v>1000</v>
       </c>
       <c r="E19" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D20" s="1">
         <v>1000</v>
@@ -749,27 +784,27 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D21" s="1">
         <v>1000</v>
       </c>
       <c r="E21" s="1">
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1">
         <v>1000</v>
@@ -780,13 +815,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D23" s="1">
         <v>1000</v>
@@ -797,10 +829,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6142273098</v>
       </c>
       <c r="D24" s="1">
         <v>1000</v>
@@ -811,52 +846,73 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D25" s="1">
         <v>1000</v>
       </c>
       <c r="E25" s="1">
-        <v>2000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="1">
-        <v>6142273098</v>
+        <v>33</v>
       </c>
       <c r="D26" s="1">
         <v>1000</v>
       </c>
       <c r="E26" s="1">
-        <v>2000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D27" s="1">
         <v>1000</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="1">
+        <v>6142273098</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" xr:uid="{0C1E223C-07BA-4FC2-A2CB-10F3E67D2F55}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{979FC2DF-A930-4714-8BCF-A210590BEE43}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{979FC2DF-A930-4714-8BCF-A210590BEE43}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{5A356B78-98B4-49E8-BE22-9B36B0131DAC}"/>
+    <hyperlink ref="C27" r:id="rId3" xr:uid="{A08D383C-4A85-491D-A82E-0AF13A081643}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>